--- a/forecast_summary_B083RVX2FQ.xlsx
+++ b/forecast_summary_B083RVX2FQ.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>44.63302030457657</v>
       </c>
       <c r="D2" t="n">
-        <v>56.01594564472624</v>
+        <v>55.61294984301951</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>41.39955499515629</v>
       </c>
       <c r="D3" t="n">
-        <v>53.16463649568568</v>
+        <v>52.60763011954928</v>
       </c>
       <c r="E3" t="n">
         <v>28</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>32.50190904702264</v>
       </c>
       <c r="D4" t="n">
-        <v>43.92666429069789</v>
+        <v>43.23327331446445</v>
       </c>
       <c r="E4" t="n">
         <v>26</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>25.28100237471538</v>
       </c>
       <c r="D5" t="n">
-        <v>36.97207114231733</v>
+        <v>37.67727696656387</v>
       </c>
       <c r="E5" t="n">
         <v>23</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>25.7184774518724</v>
       </c>
       <c r="D6" t="n">
-        <v>37.39064176556295</v>
+        <v>37.96512435803808</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>32.58614093297132</v>
       </c>
       <c r="D7" t="n">
-        <v>44.40219208792339</v>
+        <v>44.16760968898517</v>
       </c>
       <c r="E7" t="n">
         <v>25</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>39.00981957475528</v>
       </c>
       <c r="D8" t="n">
-        <v>50.66837078061896</v>
+        <v>50.23113556833452</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>40.35935100431836</v>
       </c>
       <c r="D9" t="n">
-        <v>51.91770565476524</v>
+        <v>52.96695501696088</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>39.3700509098565</v>
       </c>
       <c r="D10" t="n">
-        <v>50.81614948419269</v>
+        <v>51.88756553488735</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>42.02660261868396</v>
       </c>
       <c r="D11" t="n">
-        <v>53.7170266109983</v>
+        <v>54.11633247566814</v>
       </c>
       <c r="E11" t="n">
         <v>28</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>48.93708003200464</v>
       </c>
       <c r="D12" t="n">
-        <v>59.83111023209632</v>
+        <v>61.64341154815538</v>
       </c>
       <c r="E12" t="n">
         <v>29</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>53.09580981356792</v>
       </c>
       <c r="D13" t="n">
-        <v>64.47949541586986</v>
+        <v>64.5236288965354</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>47.64186256788996</v>
       </c>
       <c r="D14" t="n">
-        <v>59.75183608622039</v>
+        <v>58.96590507837089</v>
       </c>
       <c r="E14" t="n">
         <v>30</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>34.70150228801406</v>
       </c>
       <c r="D15" t="n">
-        <v>45.65582185218452</v>
+        <v>45.9171645661864</v>
       </c>
       <c r="E15" t="n">
         <v>29</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
         <v>24.25872596290581</v>
       </c>
       <c r="D16" t="n">
-        <v>34.90138702408724</v>
+        <v>36.19743210584856</v>
       </c>
       <c r="E16" t="n">
         <v>28</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>23.64229893550503</v>
       </c>
       <c r="D17" t="n">
-        <v>35.3784431955455</v>
+        <v>35.36810562906418</v>
       </c>
       <c r="E17" t="n">
         <v>27</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>29.76615043233982</v>
       </c>
       <c r="D18" t="n">
-        <v>42.22625551257887</v>
+        <v>41.67512822105616</v>
       </c>
       <c r="E18" t="n">
         <v>26</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>33.28406881852797</v>
       </c>
       <c r="D19" t="n">
-        <v>44.79348086069465</v>
+        <v>45.03936876899802</v>
       </c>
       <c r="E19" t="n">
         <v>27</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>29.57092652804928</v>
       </c>
       <c r="D20" t="n">
-        <v>41.3591788784636</v>
+        <v>41.13367449858695</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="n">
         <v>23.3388577635641</v>
       </c>
       <c r="D21" t="n">
-        <v>33.57429176326558</v>
+        <v>35.83472387837543</v>
       </c>
       <c r="E21" t="n">
         <v>26</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 AORUS MASTER X</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>633</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1457,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
